--- a/tbl_Cities.xlsx
+++ b/tbl_Cities.xlsx
@@ -1,19 +1,560 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\BI_NodeJsVersion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53384405-E61B-4C15-AAFE-98C090A1C874}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18810" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="tbl_Cities" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>fk_StateID</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Tempe</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Auburn University</t>
+  </si>
+  <si>
+    <t>Clarksville</t>
+  </si>
+  <si>
+    <t>Wellesley</t>
+  </si>
+  <si>
+    <t>Allen Park</t>
+  </si>
+  <si>
+    <t>Longmeadow</t>
+  </si>
+  <si>
+    <t>Bellevue</t>
+  </si>
+  <si>
+    <t>Lisle</t>
+  </si>
+  <si>
+    <t>Waltham</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>Hayward</t>
+  </si>
+  <si>
+    <t>Fullerton</t>
+  </si>
+  <si>
+    <t>Long Beach</t>
+  </si>
+  <si>
+    <t>San Bernardino</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>New Britain</t>
+  </si>
+  <si>
+    <t>Mount Pleasant</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Claremont</t>
+  </si>
+  <si>
+    <t>Potsdam</t>
+  </si>
+  <si>
+    <t>Williamsburg</t>
+  </si>
+  <si>
+    <t>Fort Collins</t>
+  </si>
+  <si>
+    <t>Greenwood Village</t>
+  </si>
+  <si>
+    <t>Colorado Springs</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Ithaca</t>
+  </si>
+  <si>
+    <t>Omaha</t>
+  </si>
+  <si>
+    <t>Flushing</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Grand Rapids</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Durham</t>
+  </si>
+  <si>
+    <t>Ypsilanti</t>
+  </si>
+  <si>
+    <t>Elmhurst</t>
+  </si>
+  <si>
+    <t>Emporia</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Bronx</t>
+  </si>
+  <si>
+    <t>Winter Park</t>
+  </si>
+  <si>
+    <t>Fairfax</t>
+  </si>
+  <si>
+    <t>Statesboro</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Allendale</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>Harrisburg</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Honolulu</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>Bloomington</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Kennesaw</t>
+  </si>
+  <si>
+    <t>Romeoville</t>
+  </si>
+  <si>
+    <t>Dubuque</t>
+  </si>
+  <si>
+    <t>Baton Rouge</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Poughkeepsie</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Macon</t>
+  </si>
+  <si>
+    <t>East Lansing</t>
+  </si>
+  <si>
+    <t>Murfreesboro</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Rolla</t>
+  </si>
+  <si>
+    <t>La Jolla</t>
+  </si>
+  <si>
+    <t>Sarasota</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>Las Cruces</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>Orange City</t>
+  </si>
+  <si>
+    <t>Evanston</t>
+  </si>
+  <si>
+    <t>Fort Lauderdale</t>
+  </si>
+  <si>
+    <t>Rochester Hills</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Stillwater</t>
+  </si>
+  <si>
+    <t>New Port Richey</t>
+  </si>
+  <si>
+    <t>Malvern</t>
+  </si>
+  <si>
+    <t>University Park</t>
+  </si>
+  <si>
+    <t>West Lafayette</t>
+  </si>
+  <si>
+    <t>Hamden</t>
+  </si>
+  <si>
+    <t>Radford</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>Camden</t>
+  </si>
+  <si>
+    <t>Saint Louis</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Winona</t>
+  </si>
+  <si>
+    <t>Jersey City</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Brookings</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Weatherford</t>
+  </si>
+  <si>
+    <t>Queens</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Hoboken</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Stephenville</t>
+  </si>
+  <si>
+    <t>Cookeville</t>
+  </si>
+  <si>
+    <t>College Station</t>
+  </si>
+  <si>
+    <t>Lubbock</t>
+  </si>
+  <si>
+    <t>Denton</t>
+  </si>
+  <si>
+    <t>Duluth</t>
+  </si>
+  <si>
+    <t>Tuscaloosa</t>
+  </si>
+  <si>
+    <t>Missoula</t>
+  </si>
+  <si>
+    <t>Knoxville</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Richardson</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Trenton</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Huntsville</t>
+  </si>
+  <si>
+    <t>Tucson</t>
+  </si>
+  <si>
+    <t>Fayetteville</t>
+  </si>
+  <si>
+    <t>Berkeley</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Irvine</t>
+  </si>
+  <si>
+    <t>Riverside</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Boulder</t>
+  </si>
+  <si>
+    <t>Storrs</t>
+  </si>
+  <si>
+    <t>Gainesville</t>
+  </si>
+  <si>
+    <t>Springfield</t>
+  </si>
+  <si>
+    <t>Champaign</t>
+  </si>
+  <si>
+    <t>Iowa City</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Orono</t>
+  </si>
+  <si>
+    <t>Farmington</t>
+  </si>
+  <si>
+    <t>College Park</t>
+  </si>
+  <si>
+    <t>Adelphi</t>
+  </si>
+  <si>
+    <t>Amherst</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Coral Gables</t>
+  </si>
+  <si>
+    <t>Ann Arbor</t>
+  </si>
+  <si>
+    <t>Dearborn</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>West Haven</t>
+  </si>
+  <si>
+    <t>Chapel Hill</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Greensboro</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>Albuquerque</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Joliet</t>
+  </si>
+  <si>
+    <t>Saint Paul</t>
+  </si>
+  <si>
+    <t>Stockton</t>
+  </si>
+  <si>
+    <t>Charlottesville</t>
+  </si>
+  <si>
+    <t>Tacoma</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Valparaiso</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Blacksburg</t>
+  </si>
+  <si>
+    <t>Morgantown</t>
+  </si>
+  <si>
+    <t>Worcester</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,6 +591,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,1929 +923,2106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C174"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C347"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>fk_StateID</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Reading</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Aurora</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>Washington</v>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>Tempe</v>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>Denver</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>Auburn University</v>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>Clarksville</v>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>Wellesley</v>
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <v>Allen Park</v>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <v>Longmeadow</v>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <v>Bellevue</v>
+      <c r="B12" t="s">
+        <v>13</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <v>Lisle</v>
+      <c r="B13" t="s">
+        <v>14</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
-        <v>Waltham</v>
+      <c r="B14" t="s">
+        <v>15</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <v>Boston</v>
+      <c r="B15" t="s">
+        <v>16</v>
       </c>
       <c r="C15">
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
-        <v>Bowling Green</v>
+      <c r="B16" t="s">
+        <v>17</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
-        <v>Hayward</v>
+      <c r="B17" t="s">
+        <v>18</v>
       </c>
       <c r="C17">
         <v>13</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
-        <v>Fullerton</v>
+      <c r="B18" t="s">
+        <v>19</v>
       </c>
       <c r="C18">
         <v>13</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="str">
-        <v>Long Beach</v>
+      <c r="B19" t="s">
+        <v>20</v>
       </c>
       <c r="C19">
         <v>13</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="str">
-        <v>San Bernardino</v>
+      <c r="B20" t="s">
+        <v>21</v>
       </c>
       <c r="C20">
         <v>13</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="str">
-        <v>Minneapolis</v>
+      <c r="B21" t="s">
+        <v>22</v>
       </c>
       <c r="C21">
         <v>14</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="str">
-        <v>Pittsburgh</v>
+      <c r="B22" t="s">
+        <v>23</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="str">
-        <v>Cleveland</v>
+      <c r="B23" t="s">
+        <v>24</v>
       </c>
       <c r="C23">
         <v>12</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="str">
-        <v>New Britain</v>
+      <c r="B24" t="s">
+        <v>25</v>
       </c>
       <c r="C24">
         <v>15</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="str">
-        <v>Mount Pleasant</v>
+      <c r="B25" t="s">
+        <v>26</v>
       </c>
       <c r="C25">
         <v>9</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="str">
-        <v>Orange</v>
+      <c r="B26" t="s">
+        <v>27</v>
       </c>
       <c r="C26">
         <v>13</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="str">
-        <v>Seattle</v>
+      <c r="B27" t="s">
+        <v>28</v>
       </c>
       <c r="C27">
         <v>10</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="str">
-        <v>Claremont</v>
+      <c r="B28" t="s">
+        <v>29</v>
       </c>
       <c r="C28">
         <v>13</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="str">
-        <v>Potsdam</v>
+      <c r="B29" t="s">
+        <v>30</v>
       </c>
       <c r="C29">
         <v>16</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="str">
-        <v>Williamsburg</v>
+      <c r="B30" t="s">
+        <v>31</v>
       </c>
       <c r="C30">
         <v>17</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="str">
-        <v>Fort Collins</v>
+      <c r="B31" t="s">
+        <v>32</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="str">
-        <v>Greenwood Village</v>
+      <c r="B32" t="s">
+        <v>33</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="str">
-        <v>Colorado Springs</v>
+      <c r="B33" t="s">
+        <v>34</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="str">
-        <v>New York</v>
+      <c r="B34" t="s">
+        <v>35</v>
       </c>
       <c r="C34">
         <v>16</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="str">
-        <v>Ithaca</v>
+      <c r="B35" t="s">
+        <v>36</v>
       </c>
       <c r="C35">
         <v>16</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="str">
-        <v>Omaha</v>
+      <c r="B36" t="s">
+        <v>37</v>
       </c>
       <c r="C36">
         <v>11</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="str">
-        <v>Flushing</v>
+      <c r="B37" t="s">
+        <v>38</v>
       </c>
       <c r="C37">
         <v>16</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="str">
-        <v>Madison</v>
+      <c r="B38" t="s">
+        <v>39</v>
       </c>
       <c r="C38">
         <v>39</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="str">
-        <v>Grand Rapids</v>
+      <c r="B39" t="s">
+        <v>40</v>
       </c>
       <c r="C39">
         <v>9</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="str">
-        <v>Chicago</v>
+      <c r="B40" t="s">
+        <v>41</v>
       </c>
       <c r="C40">
         <v>6</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="str">
-        <v>Philadelphia</v>
+      <c r="B41" t="s">
+        <v>42</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="str">
-        <v>Durham</v>
+      <c r="B42" t="s">
+        <v>43</v>
       </c>
       <c r="C42">
         <v>34</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="str">
-        <v>Ypsilanti</v>
+      <c r="B43" t="s">
+        <v>44</v>
       </c>
       <c r="C43">
         <v>9</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="str">
-        <v>Elmhurst</v>
+      <c r="B44" t="s">
+        <v>45</v>
       </c>
       <c r="C44">
         <v>6</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="str">
-        <v>Emporia</v>
+      <c r="B45" t="s">
+        <v>46</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="str">
-        <v>Miami</v>
+      <c r="B46" t="s">
+        <v>47</v>
       </c>
       <c r="C46">
         <v>21</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="str">
-        <v>Bronx</v>
+      <c r="B47" t="s">
+        <v>48</v>
       </c>
       <c r="C47">
         <v>16</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="str">
-        <v>Winter Park</v>
+      <c r="B48" t="s">
+        <v>49</v>
       </c>
       <c r="C48">
         <v>21</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="str">
-        <v>Fairfax</v>
+      <c r="B49" t="s">
+        <v>50</v>
       </c>
       <c r="C49">
         <v>17</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="str">
-        <v>Statesboro</v>
+      <c r="B50" t="s">
+        <v>51</v>
       </c>
       <c r="C50">
         <v>22</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="str">
-        <v>Atlanta</v>
+      <c r="B51" t="s">
+        <v>52</v>
       </c>
       <c r="C51">
         <v>22</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="str">
-        <v>Allendale</v>
+      <c r="B52" t="s">
+        <v>53</v>
       </c>
       <c r="C52">
         <v>9</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="str">
-        <v>Kansas City</v>
+      <c r="B53" t="s">
+        <v>54</v>
       </c>
       <c r="C53">
         <v>23</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="str">
-        <v>Harrisburg</v>
+      <c r="B54" t="s">
+        <v>55</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="str">
-        <v>Cambridge</v>
+      <c r="B55" t="s">
+        <v>56</v>
       </c>
       <c r="C55">
         <v>8</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="str">
-        <v>Honolulu</v>
+      <c r="B56" t="s">
+        <v>57</v>
       </c>
       <c r="C56">
         <v>24</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="str">
-        <v>Indianapolis</v>
+      <c r="B57" t="s">
+        <v>58</v>
       </c>
       <c r="C57">
         <v>25</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="str">
-        <v>Bloomington</v>
+      <c r="B58" t="s">
+        <v>59</v>
       </c>
       <c r="C58">
         <v>25</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="str">
-        <v>Jacksonville</v>
+      <c r="B59" t="s">
+        <v>60</v>
       </c>
       <c r="C59">
         <v>21</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="str">
-        <v>Baltimore</v>
+      <c r="B60" t="s">
+        <v>61</v>
       </c>
       <c r="C60">
         <v>26</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="str">
-        <v>Manhattan</v>
+      <c r="B61" t="s">
+        <v>62</v>
       </c>
       <c r="C61">
         <v>20</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="str">
-        <v>Kennesaw</v>
+      <c r="B62" t="s">
+        <v>63</v>
       </c>
       <c r="C62">
         <v>22</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="str">
-        <v>Romeoville</v>
+      <c r="B63" t="s">
+        <v>64</v>
       </c>
       <c r="C63">
         <v>6</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="str">
-        <v>Dubuque</v>
+      <c r="B64" t="s">
+        <v>65</v>
       </c>
       <c r="C64">
         <v>27</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="str">
-        <v>Baton Rouge</v>
+      <c r="B65" t="s">
+        <v>66</v>
       </c>
       <c r="C65">
         <v>28</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="str">
-        <v>Riverdale</v>
+      <c r="B66" t="s">
+        <v>67</v>
       </c>
       <c r="C66">
         <v>16</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="str">
-        <v>Poughkeepsie</v>
+      <c r="B67" t="s">
+        <v>68</v>
       </c>
       <c r="C67">
         <v>16</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="str">
-        <v>Charleston</v>
+      <c r="B68" t="s">
+        <v>69</v>
       </c>
       <c r="C68">
         <v>29</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="str">
-        <v>Macon</v>
+      <c r="B69" t="s">
+        <v>70</v>
       </c>
       <c r="C69">
         <v>22</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="str">
-        <v>East Lansing</v>
+      <c r="B70" t="s">
+        <v>71</v>
       </c>
       <c r="C70">
         <v>9</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="str">
-        <v>Murfreesboro</v>
+      <c r="B71" t="s">
+        <v>72</v>
       </c>
       <c r="C71">
         <v>7</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="str">
-        <v>Dallas</v>
+      <c r="B72" t="s">
+        <v>73</v>
       </c>
       <c r="C72">
         <v>33</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="str">
-        <v>Rolla</v>
+      <c r="B73" t="s">
+        <v>74</v>
       </c>
       <c r="C73">
         <v>23</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="str">
-        <v>La Jolla</v>
+      <c r="B74" t="s">
+        <v>75</v>
       </c>
       <c r="C74">
         <v>13</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="str">
-        <v>Sarasota</v>
+      <c r="B75" t="s">
+        <v>76</v>
       </c>
       <c r="C75">
         <v>21</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="str">
-        <v>Newark</v>
+      <c r="B76" t="s">
+        <v>77</v>
       </c>
       <c r="C76">
         <v>30</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="str">
-        <v>Las Cruces</v>
+      <c r="B77" t="s">
+        <v>78</v>
       </c>
       <c r="C77">
         <v>31</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="str">
-        <v>Raleigh</v>
+      <c r="B78" t="s">
+        <v>79</v>
       </c>
       <c r="C78">
         <v>19</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="str">
-        <v>Orange City</v>
+      <c r="B79" t="s">
+        <v>80</v>
       </c>
       <c r="C79">
         <v>27</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="str">
-        <v>Evanston</v>
+      <c r="B80" t="s">
+        <v>81</v>
       </c>
       <c r="C80">
         <v>6</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="str">
-        <v>Fort Lauderdale</v>
+      <c r="B81" t="s">
+        <v>82</v>
       </c>
       <c r="C81">
         <v>21</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="str">
-        <v>Rochester Hills</v>
+      <c r="B82" t="s">
+        <v>83</v>
       </c>
       <c r="C82">
         <v>9</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="str">
-        <v>Columbus</v>
+      <c r="B83" t="s">
+        <v>84</v>
       </c>
       <c r="C83">
         <v>12</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="str">
-        <v>Athens</v>
+      <c r="B84" t="s">
+        <v>85</v>
       </c>
       <c r="C84">
         <v>22</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="str">
-        <v>Stillwater</v>
+      <c r="B85" t="s">
+        <v>86</v>
       </c>
       <c r="C85">
         <v>32</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="str">
-        <v>New Port Richey</v>
+      <c r="B86" t="s">
+        <v>87</v>
       </c>
       <c r="C86">
         <v>21</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="str">
-        <v>Malvern</v>
+      <c r="B87" t="s">
+        <v>88</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="str">
-        <v>University Park</v>
+      <c r="B88" t="s">
+        <v>89</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="str">
-        <v>West Lafayette</v>
+      <c r="B89" t="s">
+        <v>90</v>
       </c>
       <c r="C89">
         <v>25</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="str">
-        <v>Hamden</v>
+      <c r="B90" t="s">
+        <v>91</v>
       </c>
       <c r="C90">
         <v>15</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="str">
-        <v>Radford</v>
+      <c r="B91" t="s">
+        <v>92</v>
       </c>
       <c r="C91">
         <v>17</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="str">
-        <v>Troy</v>
+      <c r="B92" t="s">
+        <v>93</v>
       </c>
       <c r="C92">
         <v>16</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="str">
-        <v>Rochester</v>
+      <c r="B93" t="s">
+        <v>94</v>
       </c>
       <c r="C93">
         <v>16</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="str">
-        <v>Camden</v>
+      <c r="B94" t="s">
+        <v>95</v>
       </c>
       <c r="C94">
         <v>30</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="str">
-        <v>Saint Louis</v>
+      <c r="B95" t="s">
+        <v>96</v>
       </c>
       <c r="C95">
         <v>23</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="str">
-        <v>Notre Dame</v>
+      <c r="B96" t="s">
+        <v>97</v>
       </c>
       <c r="C96">
         <v>25</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="str">
-        <v>Winona</v>
+      <c r="B97" t="s">
+        <v>98</v>
       </c>
       <c r="C97">
         <v>14</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="str">
-        <v>Jersey City</v>
+      <c r="B98" t="s">
+        <v>99</v>
       </c>
       <c r="C98">
         <v>30</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="str">
-        <v>San Jose</v>
+      <c r="B99" t="s">
+        <v>100</v>
       </c>
       <c r="C99">
         <v>13</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="str">
-        <v>Santa Clara</v>
+      <c r="B100" t="s">
+        <v>101</v>
       </c>
       <c r="C100">
         <v>13</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="str">
-        <v>Brookings</v>
+      <c r="B101" t="s">
+        <v>102</v>
       </c>
       <c r="C101">
         <v>18</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="str">
-        <v>Manchester</v>
+      <c r="B102" t="s">
+        <v>103</v>
       </c>
       <c r="C102">
         <v>34</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="str">
-        <v>Weatherford</v>
+      <c r="B103" t="s">
+        <v>104</v>
       </c>
       <c r="C103">
         <v>32</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="str">
-        <v>Queens</v>
+      <c r="B104" t="s">
+        <v>105</v>
       </c>
       <c r="C104">
         <v>16</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="str">
-        <v>Stanford</v>
+      <c r="B105" t="s">
+        <v>106</v>
       </c>
       <c r="C105">
         <v>13</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="str">
-        <v>Hoboken</v>
+      <c r="B106" t="s">
+        <v>107</v>
       </c>
       <c r="C106">
         <v>30</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="str">
-        <v>Syracuse</v>
+      <c r="B107" t="s">
+        <v>108</v>
       </c>
       <c r="C107">
         <v>16</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="str">
-        <v>Stephenville</v>
+      <c r="B108" t="s">
+        <v>109</v>
       </c>
       <c r="C108">
         <v>33</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="str">
-        <v>Cookeville</v>
+      <c r="B109" t="s">
+        <v>110</v>
       </c>
       <c r="C109">
         <v>7</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="str">
-        <v>College Station</v>
+      <c r="B110" t="s">
+        <v>111</v>
       </c>
       <c r="C110">
         <v>33</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="str">
-        <v>Lubbock</v>
+      <c r="B111" t="s">
+        <v>112</v>
       </c>
       <c r="C111">
         <v>33</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="str">
-        <v>Denton</v>
+      <c r="B112" t="s">
+        <v>113</v>
       </c>
       <c r="C112">
         <v>33</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" t="str">
-        <v>Duluth</v>
+      <c r="B113" t="s">
+        <v>114</v>
       </c>
       <c r="C113">
         <v>14</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="str">
-        <v>Tuscaloosa</v>
+      <c r="B114" t="s">
+        <v>115</v>
       </c>
       <c r="C114">
         <v>5</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="str">
-        <v>Missoula</v>
+      <c r="B115" t="s">
+        <v>116</v>
       </c>
       <c r="C115">
         <v>35</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="str">
-        <v>Knoxville</v>
+      <c r="B116" t="s">
+        <v>117</v>
       </c>
       <c r="C116">
         <v>7</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" t="str">
-        <v>Chattanooga</v>
+      <c r="B117" t="s">
+        <v>118</v>
       </c>
       <c r="C117">
         <v>7</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="str">
-        <v>Arlington</v>
+      <c r="B118" t="s">
+        <v>119</v>
       </c>
       <c r="C118">
         <v>33</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="str">
-        <v>Austin</v>
+      <c r="B119" t="s">
+        <v>120</v>
       </c>
       <c r="C119">
         <v>33</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="str">
-        <v>Richardson</v>
+      <c r="B120" t="s">
+        <v>121</v>
       </c>
       <c r="C120">
         <v>33</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" t="str">
-        <v>San Antonio</v>
+      <c r="B121" t="s">
+        <v>122</v>
       </c>
       <c r="C121">
         <v>33</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" t="str">
-        <v>Trenton</v>
+      <c r="B122" t="s">
+        <v>123</v>
       </c>
       <c r="C122">
         <v>30</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" t="str">
-        <v>Buffalo</v>
+      <c r="B123" t="s">
+        <v>124</v>
       </c>
       <c r="C123">
         <v>16</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" t="str">
-        <v>Birmingham</v>
+      <c r="B124" t="s">
+        <v>125</v>
       </c>
       <c r="C124">
         <v>5</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" t="str">
-        <v>Huntsville</v>
+      <c r="B125" t="s">
+        <v>126</v>
       </c>
       <c r="C125">
         <v>5</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" t="str">
-        <v>Tucson</v>
+      <c r="B126" t="s">
+        <v>127</v>
       </c>
       <c r="C126">
         <v>4</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" t="str">
-        <v>Fayetteville</v>
+      <c r="B127" t="s">
+        <v>128</v>
       </c>
       <c r="C127">
         <v>36</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" t="str">
-        <v>Berkeley</v>
+      <c r="B128" t="s">
+        <v>129</v>
       </c>
       <c r="C128">
         <v>13</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" t="str">
-        <v>Davis</v>
+      <c r="B129" t="s">
+        <v>130</v>
       </c>
       <c r="C129">
         <v>13</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" t="str">
-        <v>Irvine</v>
+      <c r="B130" t="s">
+        <v>131</v>
       </c>
       <c r="C130">
         <v>13</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" t="str">
-        <v>Riverside</v>
+      <c r="B131" t="s">
+        <v>132</v>
       </c>
       <c r="C131">
         <v>13</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" t="str">
-        <v>Orlando</v>
+      <c r="B132" t="s">
+        <v>133</v>
       </c>
       <c r="C132">
         <v>21</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" t="str">
-        <v>Cincinnati</v>
+      <c r="B133" t="s">
+        <v>134</v>
       </c>
       <c r="C133">
         <v>12</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" t="str">
-        <v>Boulder</v>
+      <c r="B134" t="s">
+        <v>135</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" t="str">
-        <v>Storrs</v>
+      <c r="B135" t="s">
+        <v>136</v>
       </c>
       <c r="C135">
         <v>15</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" t="str">
-        <v>Gainesville</v>
+      <c r="B136" t="s">
+        <v>137</v>
       </c>
       <c r="C136">
         <v>21</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" t="str">
-        <v>Springfield</v>
+      <c r="B137" t="s">
+        <v>138</v>
       </c>
       <c r="C137">
         <v>12</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" t="str">
-        <v>Champaign</v>
+      <c r="B138" t="s">
+        <v>139</v>
       </c>
       <c r="C138">
         <v>6</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" t="str">
-        <v>Iowa City</v>
+      <c r="B139" t="s">
+        <v>140</v>
       </c>
       <c r="C139">
         <v>27</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" t="str">
-        <v>Lawrence</v>
+      <c r="B140" t="s">
+        <v>141</v>
       </c>
       <c r="C140">
         <v>20</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" t="str">
-        <v>Louisville</v>
+      <c r="B141" t="s">
+        <v>142</v>
       </c>
       <c r="C141">
         <v>37</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" t="str">
-        <v>Orono</v>
+      <c r="B142" t="s">
+        <v>143</v>
       </c>
       <c r="C142">
         <v>38</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" t="str">
-        <v>Farmington</v>
+      <c r="B143" t="s">
+        <v>144</v>
       </c>
       <c r="C143">
         <v>38</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" t="str">
-        <v>College Park</v>
+      <c r="B144" t="s">
+        <v>145</v>
       </c>
       <c r="C144">
         <v>26</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" t="str">
-        <v>Adelphi</v>
+      <c r="B145" t="s">
+        <v>146</v>
       </c>
       <c r="C145">
         <v>26</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" t="str">
-        <v>Amherst</v>
+      <c r="B146" t="s">
+        <v>147</v>
       </c>
       <c r="C146">
         <v>8</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" t="str">
-        <v>Memphis</v>
+      <c r="B147" t="s">
+        <v>148</v>
       </c>
       <c r="C147">
         <v>7</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" t="str">
-        <v>Coral Gables</v>
+      <c r="B148" t="s">
+        <v>149</v>
       </c>
       <c r="C148">
         <v>21</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" t="str">
-        <v>Ann Arbor</v>
+      <c r="B149" t="s">
+        <v>150</v>
       </c>
       <c r="C149">
         <v>9</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" t="str">
-        <v>Dearborn</v>
+      <c r="B150" t="s">
+        <v>151</v>
       </c>
       <c r="C150">
         <v>9</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" t="str">
-        <v>Columbia</v>
+      <c r="B151" t="s">
+        <v>152</v>
       </c>
       <c r="C151">
         <v>29</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" t="str">
-        <v>Lincoln</v>
+      <c r="B152" t="s">
+        <v>153</v>
       </c>
       <c r="C152">
         <v>11</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" t="str">
-        <v>West Haven</v>
+      <c r="B153" t="s">
+        <v>154</v>
       </c>
       <c r="C153">
         <v>15</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" t="str">
-        <v>Chapel Hill</v>
+      <c r="B154" t="s">
+        <v>155</v>
       </c>
       <c r="C154">
         <v>19</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" t="str">
-        <v>Charlotte</v>
+      <c r="B155" t="s">
+        <v>156</v>
       </c>
       <c r="C155">
         <v>19</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" t="str">
-        <v>Greensboro</v>
+      <c r="B156" t="s">
+        <v>157</v>
       </c>
       <c r="C156">
         <v>19</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" t="str">
-        <v>Norman</v>
+      <c r="B157" t="s">
+        <v>158</v>
       </c>
       <c r="C157">
         <v>32</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" t="str">
-        <v>Albuquerque</v>
+      <c r="B158" t="s">
+        <v>159</v>
       </c>
       <c r="C158">
         <v>31</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" t="str">
-        <v>Bradford</v>
+      <c r="B159" t="s">
+        <v>160</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" t="str">
-        <v>San Francisco</v>
+      <c r="B160" t="s">
+        <v>161</v>
       </c>
       <c r="C160">
         <v>13</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" t="str">
-        <v>Tampa</v>
+      <c r="B161" t="s">
+        <v>162</v>
       </c>
       <c r="C161">
         <v>21</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" t="str">
-        <v>Los Angeles</v>
+      <c r="B162" t="s">
+        <v>163</v>
       </c>
       <c r="C162">
         <v>13</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" t="str">
-        <v>Joliet</v>
+      <c r="B163" t="s">
+        <v>164</v>
       </c>
       <c r="C163">
         <v>6</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" t="str">
-        <v>Saint Paul</v>
+      <c r="B164" t="s">
+        <v>165</v>
       </c>
       <c r="C164">
         <v>14</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" t="str">
-        <v>Stockton</v>
+      <c r="B165" t="s">
+        <v>166</v>
       </c>
       <c r="C165">
         <v>13</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" t="str">
-        <v>Charlottesville</v>
+      <c r="B166" t="s">
+        <v>167</v>
       </c>
       <c r="C166">
         <v>17</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" t="str">
-        <v>Tacoma</v>
+      <c r="B167" t="s">
+        <v>168</v>
       </c>
       <c r="C167">
         <v>10</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" t="str">
-        <v>Milwaukee</v>
+      <c r="B168" t="s">
+        <v>169</v>
       </c>
       <c r="C168">
         <v>39</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" t="str">
-        <v>Valparaiso</v>
+      <c r="B169" t="s">
+        <v>170</v>
       </c>
       <c r="C169">
         <v>25</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" t="str">
-        <v>Villanova</v>
+      <c r="B170" t="s">
+        <v>171</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" t="str">
-        <v>Richmond</v>
+      <c r="B171" t="s">
+        <v>172</v>
       </c>
       <c r="C171">
         <v>17</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" t="str">
-        <v>Blacksburg</v>
+      <c r="B172" t="s">
+        <v>173</v>
       </c>
       <c r="C172">
         <v>17</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" t="str">
-        <v>Morgantown</v>
+      <c r="B173" t="s">
+        <v>174</v>
       </c>
       <c r="C173">
         <v>40</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" t="str">
-        <v>Worcester</v>
+      <c r="B174" t="s">
+        <v>175</v>
       </c>
       <c r="C174">
         <v>8</v>
       </c>
     </row>
+    <row r="175" spans="1:3" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:3" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C174"/>
+    <ignoredError sqref="A1:C174" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>